--- a/SourceDataTables/FigS22c.xlsx
+++ b/SourceDataTables/FigS22c.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="31">
   <si>
     <t>Neuronal_subcluster</t>
   </si>
@@ -126,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -136,14 +136,42 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -164,24 +192,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -198,7 +226,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -215,7 +243,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -232,7 +260,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -249,7 +277,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -266,7 +294,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -283,7 +311,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -300,7 +328,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -317,7 +345,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -334,7 +362,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -351,7 +379,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -368,7 +396,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -385,7 +413,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -402,7 +430,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -419,7 +447,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -436,7 +464,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -453,7 +481,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -470,7 +498,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -487,7 +515,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -504,7 +532,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -521,7 +549,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -538,7 +566,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -555,7 +583,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -572,7 +600,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -589,7 +617,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -606,7 +634,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -623,7 +651,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B28">
@@ -640,7 +668,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B29">
@@ -657,7 +685,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B30">
@@ -674,7 +702,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B31">
@@ -691,7 +719,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B32">
@@ -708,7 +736,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B33">
@@ -725,7 +753,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B34">
@@ -742,7 +770,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B35">
@@ -759,7 +787,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B36">
@@ -776,7 +804,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B37">
@@ -793,7 +821,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B38">
@@ -810,7 +838,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B39">
@@ -827,7 +855,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B40">
@@ -844,7 +872,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B41">
@@ -861,7 +889,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B42">
@@ -878,7 +906,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B43">
@@ -895,7 +923,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B44">
@@ -912,7 +940,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B45">
@@ -929,7 +957,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B46">
@@ -946,7 +974,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B47">
@@ -963,7 +991,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B48">
@@ -980,7 +1008,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B49">
@@ -997,7 +1025,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B50">
@@ -1014,7 +1042,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B51">
@@ -1031,7 +1059,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B52">
@@ -1048,7 +1076,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B53">
@@ -1065,7 +1093,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B54">
@@ -1082,7 +1110,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B55">
@@ -1099,7 +1127,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B56">
@@ -1116,7 +1144,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B57">
@@ -1133,7 +1161,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B58">
@@ -1150,7 +1178,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B59">
@@ -1167,7 +1195,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B60">
@@ -1184,7 +1212,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B61">
@@ -1201,7 +1229,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B62">
@@ -1218,7 +1246,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B63">
@@ -1235,7 +1263,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B64">
@@ -1252,7 +1280,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B65">
@@ -1269,7 +1297,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B66">
@@ -1286,7 +1314,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B67">
@@ -1303,7 +1331,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B68">
@@ -1320,7 +1348,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B69">
@@ -1337,7 +1365,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B70">
@@ -1354,7 +1382,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B71">
@@ -1371,7 +1399,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B72">
@@ -1388,7 +1416,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B73">
@@ -1405,7 +1433,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B74">
@@ -1422,7 +1450,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B75">
@@ -1439,7 +1467,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B76">
@@ -1456,7 +1484,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B77">
@@ -1473,7 +1501,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B78">
@@ -1490,7 +1518,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B79">
@@ -1507,7 +1535,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B80">
@@ -1524,7 +1552,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B81">
@@ -1541,7 +1569,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B82">
@@ -1558,7 +1586,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B83">
@@ -1575,7 +1603,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B84">
@@ -1592,7 +1620,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B85">
@@ -1609,7 +1637,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B86">
@@ -1626,7 +1654,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B87">
@@ -1643,7 +1671,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B88">
@@ -1660,7 +1688,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B89">
@@ -1677,7 +1705,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B90">
@@ -1694,7 +1722,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B91">
@@ -1711,7 +1739,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B92">
@@ -1728,7 +1756,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B93">
@@ -1745,7 +1773,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B94">
@@ -1762,7 +1790,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B95">
@@ -1779,7 +1807,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B96">
@@ -1796,7 +1824,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B97">
@@ -1813,7 +1841,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B98">
@@ -1830,7 +1858,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B99">
@@ -1847,7 +1875,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B100">
@@ -1864,7 +1892,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B101">
@@ -1881,7 +1909,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B102">
@@ -1898,7 +1926,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B103">
@@ -1915,7 +1943,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B104">
@@ -1932,7 +1960,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B105">
@@ -1949,7 +1977,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B106">
@@ -1966,7 +1994,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B107">
@@ -1983,7 +2011,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B108">
@@ -2000,7 +2028,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B109">
@@ -2017,7 +2045,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B110">
@@ -2034,7 +2062,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B111">
@@ -2051,7 +2079,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B112">
@@ -2068,7 +2096,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B113">
@@ -2085,7 +2113,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B114">
@@ -2102,7 +2130,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B115">
@@ -2119,7 +2147,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B116">
@@ -2136,7 +2164,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B117">
@@ -2153,7 +2181,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B118">
@@ -2170,7 +2198,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B119">
@@ -2187,7 +2215,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B120">
@@ -2204,7 +2232,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B121">
@@ -2221,7 +2249,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B122">
@@ -2238,7 +2266,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B123">
@@ -2255,7 +2283,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B124">
@@ -2272,7 +2300,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B125">
@@ -2289,7 +2317,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B126">
@@ -2306,7 +2334,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B127">
@@ -2323,7 +2351,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B128">
@@ -2340,7 +2368,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B129">
@@ -2357,7 +2385,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B130">
@@ -2374,7 +2402,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B131">
@@ -2391,7 +2419,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B132">
@@ -2408,7 +2436,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B133">
@@ -2425,7 +2453,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B134">
@@ -2442,7 +2470,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B135">
@@ -2459,7 +2487,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B136">
@@ -2476,7 +2504,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B137">
@@ -2493,7 +2521,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B138">
@@ -2510,7 +2538,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B139">
@@ -2527,7 +2555,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B140">
@@ -2544,7 +2572,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B141">
@@ -2561,7 +2589,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B142">
@@ -2578,7 +2606,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B143">
@@ -2595,7 +2623,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B144">
@@ -2612,7 +2640,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B145">
@@ -2629,7 +2657,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B146">
@@ -2646,7 +2674,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B147">
@@ -2663,7 +2691,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B148">
@@ -2680,7 +2708,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B149">
@@ -2697,7 +2725,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B150">
@@ -2714,7 +2742,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B151">
@@ -2731,7 +2759,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B152">
@@ -2748,7 +2776,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B153">
@@ -2765,7 +2793,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B154">
@@ -2782,7 +2810,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B155">
@@ -2799,7 +2827,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B156">
@@ -2816,7 +2844,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B157">
@@ -2833,7 +2861,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B158">
@@ -2850,7 +2878,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B159">
@@ -2867,7 +2895,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B160">
@@ -2884,7 +2912,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B161">
@@ -2901,7 +2929,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B162">
@@ -2918,7 +2946,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B163">
@@ -2935,7 +2963,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B164">
@@ -2952,7 +2980,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B165">
@@ -2969,7 +2997,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B166">
@@ -2986,7 +3014,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B167">
@@ -3003,7 +3031,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B168">
@@ -3020,7 +3048,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B169">
@@ -3037,7 +3065,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B170">
@@ -3054,7 +3082,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B171">
@@ -3071,7 +3099,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B172">
@@ -3088,7 +3116,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B173">
@@ -3105,7 +3133,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B174">
@@ -3122,7 +3150,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B175">
@@ -3139,7 +3167,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B176">
@@ -3156,7 +3184,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B177">
@@ -3173,7 +3201,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B178">
@@ -3190,7 +3218,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B179">
@@ -3207,7 +3235,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B180">
@@ -3224,7 +3252,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B181">
@@ -3241,7 +3269,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B182">
@@ -3258,7 +3286,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B183">

--- a/SourceDataTables/FigS22c.xlsx
+++ b/SourceDataTables/FigS22c.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="31">
   <si>
     <t>Neuronal_subcluster</t>
   </si>
@@ -126,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -150,11 +150,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -172,6 +176,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -192,24 +200,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -226,7 +234,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -243,7 +251,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -260,7 +268,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -277,7 +285,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -294,7 +302,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -311,7 +319,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -328,7 +336,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -345,7 +353,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -362,7 +370,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -379,7 +387,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -396,7 +404,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -413,7 +421,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -430,7 +438,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -447,7 +455,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -464,7 +472,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -481,7 +489,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -498,7 +506,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -515,7 +523,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -532,7 +540,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -549,7 +557,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -566,7 +574,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -583,7 +591,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -600,7 +608,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -617,7 +625,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -634,7 +642,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B27">
